--- a/texts.xlsx
+++ b/texts.xlsx
@@ -1,52 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\python\refactoring\seo-bots-checks-texts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81338B9-5A6E-4B89-AE2A-012324475412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22265" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист2'!$A$1:$A$7344</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$A$7340</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+  <si>
+    <t>some text</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>some text1</t>
+  </si>
+  <si>
+    <t>2 word(s)</t>
+  </si>
+  <si>
+    <t>10 characters</t>
+  </si>
+  <si>
+    <t>some text2</t>
+  </si>
+  <si>
+    <t>some text3</t>
+  </si>
+  <si>
+    <t>some text4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,17 +97,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,140 +382,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Лист1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.3984375"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>some text</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>some text1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55 слов</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>360 символов</t>
-        </is>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>some text2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6,4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>69 слов</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>490 символов</t>
-        </is>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>some text3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>77 слов</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>589 символов</t>
-        </is>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>some text4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9,5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>116 слов</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>976 символов</t>
-        </is>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A7344"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <autoFilter ref="A1:A7340" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>